--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/F/10/seed2/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/F/10/seed2/result_data_KNN.xlsx
@@ -491,7 +491,7 @@
         <v>-6.85</v>
       </c>
       <c r="E3" t="n">
-        <v>12.47</v>
+        <v>12.968</v>
       </c>
     </row>
     <row r="4">
@@ -797,7 +797,7 @@
         <v>-8.890000000000001</v>
       </c>
       <c r="E21" t="n">
-        <v>13.498</v>
+        <v>13.492</v>
       </c>
     </row>
     <row r="22">
@@ -831,7 +831,7 @@
         <v>-8.529999999999999</v>
       </c>
       <c r="E23" t="n">
-        <v>12.984</v>
+        <v>13.121</v>
       </c>
     </row>
     <row r="24">
@@ -865,7 +865,7 @@
         <v>-7.71</v>
       </c>
       <c r="E25" t="n">
-        <v>13.172</v>
+        <v>12.659</v>
       </c>
     </row>
   </sheetData>
